--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.0a</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T13:45:31+00:00</t>
+    <t>2024-11-20T07:42:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T07:42:16+00:00</t>
+    <t>2024-11-20T08:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T08:07:18+00:00</t>
+    <t>2024-11-28T16:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T16:16:27+00:00</t>
+    <t>2024-11-28T16:31:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T16:31:55+00:00</t>
+    <t>2024-11-28T17:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T17:44:32+00:00</t>
+    <t>2024-11-28T18:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:02:22+00:00</t>
+    <t>2024-11-28T18:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:14:06+00:00</t>
+    <t>2024-11-28T18:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:48:52+00:00</t>
+    <t>2024-11-28T19:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:00:24+00:00</t>
+    <t>2024-11-28T19:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:11:59+00:00</t>
+    <t>2024-11-28T19:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:26:03+00:00</t>
+    <t>2024-11-28T19:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:44:01+00:00</t>
+    <t>2024-11-28T19:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:56:41+00:00</t>
+    <t>2024-11-28T20:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T20:25:26+00:00</t>
+    <t>2024-11-28T20:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
+++ b/sitepreview/base/StructureDefinition-SGCodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T20:42:31+00:00</t>
+    <t>2024-11-28T22:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
